--- a/input/Domains/Common/CommonTable.xlsx
+++ b/input/Domains/Common/CommonTable.xlsx
@@ -1,54 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="COMPLEX_POLICY" sheetId="1" r:id="rId1"/>
-    <sheet name="ERROR_COMMON" sheetId="2" r:id="rId2"/>
-    <sheet name="ERROR_SERVER" sheetId="3" r:id="rId3"/>
+    <sheet name="COMPLEX_POLICY" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ERROR_COMMON" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ERROR_SERVER" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,13 +44,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -398,906 +442,1346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView rightToLeft="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>key</v>
-      </c>
-      <c r="B1" t="str">
-        <v>fallbackValue</v>
-      </c>
-      <c r="C1" t="str">
-        <v>minValue</v>
-      </c>
-      <c r="D1" t="str">
-        <v>maxValue</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fallbackValue</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>minValue</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>maxValue</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>enum:ComplexPolicyType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Variant</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Variant</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Variant</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>enum:ComplexPolicyType</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Variant</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Variant</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Variant</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>pk, gen:ComplexPolicyType</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pk, gen:ComplexPolicyType</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>PK / Enum member name</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Default fallback value</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Minimum bound</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Maximum bound</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PK / Enum member name</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Default fallback value</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Minimum bound</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Maximum bound</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>AttackPower</v>
-      </c>
-      <c r="B5" t="str">
-        <v>i:0</v>
-      </c>
-      <c r="C5" t="str">
-        <v>i:0</v>
-      </c>
-      <c r="D5" t="str">
-        <v>i:10000</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AttackPower</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>i:0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>i:0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>i:10000</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>CriRate</v>
-      </c>
-      <c r="B6" t="str">
-        <v>f:0</v>
-      </c>
-      <c r="C6" t="str">
-        <v>f:0</v>
-      </c>
-      <c r="D6" t="str">
-        <v>f:3.5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CriRate</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>f:0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f:0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>f:3.5</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>NameTag</v>
-      </c>
-      <c r="B7" t="str">
-        <v>s:Hello</v>
-      </c>
-      <c r="C7" t="str">
-        <v>s:A</v>
-      </c>
-      <c r="D7" t="str">
-        <v>s:Z</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NameTag</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s:Hello</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>s:A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>s:Z</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView rightToLeft="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>msg_key</v>
-      </c>
-      <c r="C1" t="str">
-        <v>msg</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>msg_key</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>msg</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>enum:CommonErrorType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>string</v>
-      </c>
-      <c r="C2" t="str">
-        <v>string</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>enum:CommonErrorType</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>pk, gen:CommonErrorType</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pk, gen:CommonErrorType</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>COMMON_UNKNOWN</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Unknown error</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>COMMON_UNKNOWN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Unknown error</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>COMMON_NETWORK</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Network error</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>COMMON_NETWORK</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Network error</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>COMMON_AUTH</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Authorization error</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>COMMON_AUTH</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Authorization error</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>COMMON_RATE_LIMIT</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Too many requests</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>COMMON_RATE_LIMIT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Too many requests</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>COMMON_SERVER</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Server error</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>COMMON_SERVER</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Server error</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>FIREBASE_DEPENDENCY</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Firebase dependency error</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FIREBASE_DEPENDENCY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Firebase dependency error</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>FIREBASE_NOT_INITIALIZED</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Firebase is not initialized</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FIREBASE_NOT_INITIALIZED</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Firebase is not initialized</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>FIREBASE_SIGNIN</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Firebase sign-in failed</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FIREBASE_SIGNIN</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Firebase sign-in failed</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>FIREBASE_NO_USER</v>
-      </c>
-      <c r="C13" t="str">
-        <v>No signed-in user</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FIREBASE_NO_USER</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No signed-in user</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>FIREBASE_TOKEN</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Failed to get ID token</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FIREBASE_TOKEN</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Failed to get ID token</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>FIREBASE_GOOGLE_TOKEN</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Google idToken is empty</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FIREBASE_GOOGLE_TOKEN</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Google idToken is empty</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>FIREBASE_GOOGLE_SIGNIN</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Google sign-in failed</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FIREBASE_GOOGLE_SIGNIN</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Google sign-in failed</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>FIREBASE_GOOGLE_REAUTH_REQUIRED</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Google re-authentication required</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FIREBASE_GOOGLE_REAUTH_REQUIRED</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Google re-authentication required</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
-        <v>FIREBASE_APPLE_TOKEN</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Apple identity token is empty</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FIREBASE_APPLE_TOKEN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Apple identity token is empty</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
-        <v>FIREBASE_APPLE_SIGNIN</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Apple sign-in failed</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FIREBASE_APPLE_SIGNIN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Apple sign-in failed</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
-        <v>FIREBASE_APPLE_BRIDGE</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Apple sign-in bridge is not wired</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FIREBASE_APPLE_BRIDGE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Apple sign-in bridge is not wired</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>FIREBASE_FACEBOOK_NOT_IMPLEMENTED</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Facebook sign-in is not implemented</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FIREBASE_FACEBOOK_NOT_IMPLEMENTED</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Facebook sign-in is not implemented</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
-        <v>FIREBASE_REAUTH_UNKNOWN</v>
-      </c>
-      <c r="C22" t="str">
-        <v>Unknown re-authentication type</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FIREBASE_REAUTH_UNKNOWN</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Unknown re-authentication type</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
-        <v>LOGIN_FIREBASE_DEPENDENCY</v>
-      </c>
-      <c r="C23" t="str">
-        <v>Firebase dependency error</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LOGIN_FIREBASE_DEPENDENCY</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Firebase dependency error</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
-        <v>LOGIN_CREDENTIAL_UNSUPPORTED</v>
-      </c>
-      <c r="C24" t="str">
-        <v>Internal credential acquisition not supported</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LOGIN_CREDENTIAL_UNSUPPORTED</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Internal credential acquisition not supported</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
-        <v>LOGIN_GPGS_NOT_FOUND</v>
-      </c>
-      <c r="C25" t="str">
-        <v>GooglePlayGames plugin is not installed</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LOGIN_GPGS_NOT_FOUND</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>GooglePlayGames plugin is not installed</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
-        <v>LOGIN_GPGS_NOT_INITIALIZED</v>
-      </c>
-      <c r="C26" t="str">
-        <v>PlayGamesPlatform.Instance is null</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LOGIN_GPGS_NOT_INITIALIZED</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PlayGamesPlatform.Instance is null</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
-        <v>LOGIN_GPGS_NO_AUTHENTICATE</v>
-      </c>
-      <c r="C27" t="str">
-        <v>PlayGamesPlatform.Authenticate not found</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LOGIN_GPGS_NO_AUTHENTICATE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PlayGamesPlatform.Authenticate not found</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
-        <v>LOGIN_GPGS_AUTH_FAILED</v>
-      </c>
-      <c r="C28" t="str">
-        <v>Google Play Games authentication failed</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LOGIN_GPGS_AUTH_FAILED</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Google Play Games authentication failed</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
-        <v>LOGIN_GPGS_NO_SERVER_ACCESS</v>
-      </c>
-      <c r="C29" t="str">
-        <v>PlayGamesPlatform.RequestServerSideAccess not found</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LOGIN_GPGS_NO_SERVER_ACCESS</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PlayGamesPlatform.RequestServerSideAccess not found</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="str">
-        <v>LOGIN_GPGS_NO_AUTH_CODE</v>
-      </c>
-      <c r="C30" t="str">
-        <v>Failed to obtain server auth code from GPGS</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LOGIN_GPGS_NO_AUTH_CODE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Failed to obtain server auth code from GPGS</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
-        <v>LOGIN_GPGS_EXCEPTION</v>
-      </c>
-      <c r="C31" t="str">
-        <v>GPGS credential exception</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>LOGIN_GPGS_EXCEPTION</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>GPGS credential exception</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="str">
-        <v>LOGIN_UNSUPPORTED</v>
-      </c>
-      <c r="C32" t="str">
-        <v>LoginType not supported on this platform</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LOGIN_UNSUPPORTED</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>LoginType not supported on this platform</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="str">
-        <v>LOGIN_ANONYMOUS_FAILED</v>
-      </c>
-      <c r="C33" t="str">
-        <v>Anonymous sign-in returned no user</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LOGIN_ANONYMOUS_FAILED</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Anonymous sign-in returned no user</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="str">
-        <v>LOGIN_ANONYMOUS_EXCEPTION</v>
-      </c>
-      <c r="C34" t="str">
-        <v>Anonymous sign-in exception</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>LOGIN_ANONYMOUS_EXCEPTION</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Anonymous sign-in exception</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="str">
-        <v>LOGIN_GOOGLE_MISSING_AUTH_CODE</v>
-      </c>
-      <c r="C35" t="str">
-        <v>Google ServerAuthCode is required</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LOGIN_GOOGLE_MISSING_AUTH_CODE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Google ServerAuthCode is required</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
-        <v>LOGIN_GOOGLE_LINK_FAILED</v>
-      </c>
-      <c r="C36" t="str">
-        <v>Failed to link Google credential</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LOGIN_GOOGLE_LINK_FAILED</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Failed to link Google credential</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
-        <v>LOGIN_GOOGLE_SIGNIN_FAILED</v>
-      </c>
-      <c r="C37" t="str">
-        <v>Failed to sign in with Google credential</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>LOGIN_GOOGLE_SIGNIN_FAILED</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Failed to sign in with Google credential</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="str">
-        <v>LOGIN_GOOGLE_EXCEPTION</v>
-      </c>
-      <c r="C38" t="str">
-        <v>Google sign-in exception</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>LOGIN_GOOGLE_EXCEPTION</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Google sign-in exception</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
-        <v>LOGIN_APPLE_MISSING_TOKEN</v>
-      </c>
-      <c r="C39" t="str">
-        <v>Apple IdToken and RawNonce required</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>LOGIN_APPLE_MISSING_TOKEN</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Apple IdToken and RawNonce required</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
-        <v>LOGIN_APPLE_LINK_FAILED</v>
-      </c>
-      <c r="C40" t="str">
-        <v>Failed to link Apple credential</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LOGIN_APPLE_LINK_FAILED</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Failed to link Apple credential</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="str">
-        <v>LOGIN_APPLE_SIGNIN_FAILED</v>
-      </c>
-      <c r="C41" t="str">
-        <v>Failed to sign in with Apple credential</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>LOGIN_APPLE_SIGNIN_FAILED</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Failed to sign in with Apple credential</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="str">
-        <v>LOGIN_APPLE_EXCEPTION</v>
-      </c>
-      <c r="C42" t="str">
-        <v>Apple sign-in exception</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>LOGIN_APPLE_EXCEPTION</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Apple sign-in exception</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="str">
-        <v>CLOUDSAVE_KEYIV</v>
-      </c>
-      <c r="C43" t="str">
-        <v>Key/IV error</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CLOUDSAVE_KEYIV</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Key/IV error</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="str">
-        <v>CLOUDSAVE_NOCLIENT</v>
-      </c>
-      <c r="C44" t="str">
-        <v>Client not configured</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CLOUDSAVE_NOCLIENT</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Client not configured</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="str">
-        <v>CLOUDSAVE_SLOT_EMPTY</v>
-      </c>
-      <c r="C45" t="str">
-        <v>Slot is empty</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CLOUDSAVE_SLOT_EMPTY</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Slot is empty</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="str">
-        <v>CLOUDSAVE_SLOT_MISSING</v>
-      </c>
-      <c r="C46" t="str">
-        <v>Slot not configured</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CLOUDSAVE_SLOT_MISSING</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Slot not configured</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="str">
-        <v>CLOUDSAVE_PAYLOAD_INVALID</v>
-      </c>
-      <c r="C47" t="str">
-        <v>Payload must be JSON</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CLOUDSAVE_PAYLOAD_INVALID</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Payload must be JSON</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="str">
-        <v>CLOUDSAVE_SIGNIN</v>
-      </c>
-      <c r="C48" t="str">
-        <v>Cloud save sign-in failed</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CLOUDSAVE_SIGNIN</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Cloud save sign-in failed</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="str">
-        <v>CLOUDSAVE_SAVE</v>
-      </c>
-      <c r="C49" t="str">
-        <v>Cloud save failed</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CLOUDSAVE_SAVE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Cloud save failed</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="str">
-        <v>CLOUDSAVE_LOAD</v>
-      </c>
-      <c r="C50" t="str">
-        <v>Cloud load failed</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CLOUDSAVE_LOAD</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Cloud load failed</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="str">
-        <v>CLOUDSAVE_CHECKSUM</v>
-      </c>
-      <c r="C51" t="str">
-        <v>Checksum mismatch</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CLOUDSAVE_CHECKSUM</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Checksum mismatch</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="str">
-        <v>CLOUDSAVE_DELETE</v>
-      </c>
-      <c r="C52" t="str">
-        <v>Cloud delete failed</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CLOUDSAVE_DELETE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Cloud delete failed</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="str">
-        <v>LOCALSAVE_KEYIV</v>
-      </c>
-      <c r="C53" t="str">
-        <v>Key/IV error</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LOCALSAVE_KEYIV</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Key/IV error</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
-        <v>LOCALSAVE_SLOT_EMPTY</v>
-      </c>
-      <c r="C54" t="str">
-        <v>Slot is empty</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>LOCALSAVE_SLOT_EMPTY</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Slot is empty</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="str">
-        <v>LOCALSAVE_SLOT_MISSING</v>
-      </c>
-      <c r="C55" t="str">
-        <v>Slot not configured</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>LOCALSAVE_SLOT_MISSING</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Slot not configured</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="str">
-        <v>LOCALSAVE_FILENAME_INVALID</v>
-      </c>
-      <c r="C56" t="str">
-        <v>Invalid filename</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>LOCALSAVE_FILENAME_INVALID</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Invalid filename</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="str">
-        <v>LOCALSAVE_CANCELLED</v>
-      </c>
-      <c r="C57" t="str">
-        <v>Operation cancelled</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>LOCALSAVE_CANCELLED</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Operation cancelled</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="str">
-        <v>LOCALSAVE_CHECKSUM</v>
-      </c>
-      <c r="C58" t="str">
-        <v>Checksum mismatch</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>LOCALSAVE_CHECKSUM</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Checksum mismatch</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="str">
-        <v>LOCALSAVE_PATH_EMPTY</v>
-      </c>
-      <c r="C59" t="str">
-        <v>Root path is empty</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>LOCALSAVE_PATH_EMPTY</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Root path is empty</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="str">
-        <v>LOCALSAVE_FILENAME_EMPTY</v>
-      </c>
-      <c r="C60" t="str">
-        <v>Filename is empty</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>LOCALSAVE_FILENAME_EMPTY</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Filename is empty</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="str">
-        <v>LOCALSAVE_WRITE</v>
-      </c>
-      <c r="C61" t="str">
-        <v>Write failed</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>LOCALSAVE_WRITE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Write failed</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="str">
-        <v>LOCALSAVE_READ</v>
-      </c>
-      <c r="C62" t="str">
-        <v>Read failed</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>LOCALSAVE_READ</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Read failed</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="str">
-        <v>IAP_NOT_INITIALIZED</v>
-      </c>
-      <c r="C63" t="str">
-        <v>Store not initialized</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>IAP_NOT_INITIALIZED</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Store not initialized</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="str">
-        <v>IAP_NOT_SUPPORTED</v>
-      </c>
-      <c r="C64" t="str">
-        <v>Unity Purchasing not available</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>IAP_NOT_SUPPORTED</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Unity Purchasing not available</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="str">
-        <v>PURCHASE_STORE_FAILED</v>
-      </c>
-      <c r="C65" t="str">
-        <v>Purchase store failed</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PURCHASE_STORE_FAILED</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Purchase store failed</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="str">
-        <v>LOGIN_SYNC_CANCELLED</v>
-      </c>
-      <c r="C66" t="str">
-        <v>Sync cancelled</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>LOGIN_SYNC_CANCELLED</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Sync cancelled</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="str">
-        <v>LOGIN_SYNC_SLOT_LIST_FAILED</v>
-      </c>
-      <c r="C67" t="str">
-        <v>Sync failed while listing slots</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>LOGIN_SYNC_SLOT_LIST_FAILED</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Sync failed while listing slots</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="str">
-        <v>LOGIN_SYNC_LOAD_LOCAL_FAILED</v>
-      </c>
-      <c r="C68" t="str">
-        <v>Sync failed while loading local data</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>LOGIN_SYNC_LOAD_LOCAL_FAILED</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Sync failed while loading local data</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="str">
-        <v>LOGIN_SYNC_LOAD_CLOUD_FAILED</v>
-      </c>
-      <c r="C69" t="str">
-        <v>Sync failed while loading cloud data</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>LOGIN_SYNC_LOAD_CLOUD_FAILED</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Sync failed while loading cloud data</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="str">
-        <v>LOGIN_SYNC_SAVE_LOCAL_FAILED</v>
-      </c>
-      <c r="C70" t="str">
-        <v>Sync failed while saving local data</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>LOGIN_SYNC_SAVE_LOCAL_FAILED</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Sync failed while saving local data</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="str">
-        <v>LOGIN_SYNC_SAVE_CLOUD_FAILED</v>
-      </c>
-      <c r="C71" t="str">
-        <v>Sync failed while saving cloud data</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>LOGIN_SYNC_SAVE_CLOUD_FAILED</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sync failed while saving cloud data</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="str">
-        <v>LOGIN_SYNC_RESOLVE_FAILED</v>
-      </c>
-      <c r="C72" t="str">
-        <v>Sync failed while resolving conflict</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>LOGIN_SYNC_RESOLVE_FAILED</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Sync failed while resolving conflict</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="str">
-        <v>SAVEDATA_PAYLOAD_PARSE_FAILED</v>
-      </c>
-      <c r="C73" t="str">
-        <v>Failed to parse save payload json</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SAVEDATA_PAYLOAD_PARSE_FAILED</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Failed to parse save payload json</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="str">
-        <v>PURCHASE_RENTAL_LATEST_NOT_FOUND</v>
-      </c>
-      <c r="B74" t="str">
-        <v/>
-      </c>
-      <c r="C74" t="str">
-        <v>No recent rental purchase within 30 days.</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PURCHASE_RENTAL_LATEST_NOT_FOUND</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No recent rental purchase within 30 days.</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="str">
-        <v>PURCHASE_RENTAL_LATEST_CALL_FAILED</v>
-      </c>
-      <c r="B75" t="str">
-        <v/>
-      </c>
-      <c r="C75" t="str">
-        <v>Failed to fetch latest rental purchase within 30 days.</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PURCHASE_RENTAL_LATEST_CALL_FAILED</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Failed to fetch latest rental purchase within 30 days.</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="str">
-        <v>PURCHASE_NETWORK_UNAVAILABLE</v>
-      </c>
-      <c r="B76" t="str">
-        <v/>
-      </c>
-      <c r="C76" t="str">
-        <v>Network unavailable.</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PURCHASE_NETWORK_UNAVAILABLE</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Network unavailable.</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="str">
-        <v>PURCHASE_UNAUTHENTICATED</v>
-      </c>
-      <c r="B77" t="str">
-        <v/>
-      </c>
-      <c r="C77" t="str">
-        <v>Authentication required.</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PURCHASE_UNAUTHENTICATED</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Authentication required.</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="str">
-        <v>PURCHASE_UNSUPPORTED_PLATFORM</v>
-      </c>
-      <c r="B78" t="str">
-        <v/>
-      </c>
-      <c r="C78" t="str">
-        <v>PurchaseManager is not supported in Editor.</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PURCHASE_UNSUPPORTED_PLATFORM</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PurchaseManager is not supported in Editor.</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="str">
-        <v>PURCHASE_INIT_FAILED</v>
-      </c>
-      <c r="B79" t="str">
-        <v/>
-      </c>
-      <c r="C79" t="str">
-        <v>IAP initialization failed.</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PURCHASE_INIT_FAILED</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>IAP initialization failed.</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="str">
-        <v>PURCHASE_INIT_REQUIRED</v>
-      </c>
-      <c r="B80" t="str">
-        <v/>
-      </c>
-      <c r="C80" t="str">
-        <v>PurchaseManager not initialized. Call InitializeAsync() first.</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PURCHASE_INIT_REQUIRED</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PurchaseManager not initialized. Call InitializeAsync() first.</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="str">
-        <v>PURCHASE_PRODUCT_FETCH_FAILED</v>
-      </c>
-      <c r="B81" t="str">
-        <v/>
-      </c>
-      <c r="C81" t="str">
-        <v>Failed to fetch products from store.</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PURCHASE_PRODUCT_FETCH_FAILED</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Failed to fetch products from store.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>INVENTORY_DELTAS_NULL</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>rewards array is null</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>INVENTORY_DELTA_TYPE_INVALID</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>reward type is not Item or Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>INVENTORY_DELTA_ID_EMPTY</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>reward id is null or empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>INVENTORY_DELTA_AMOUNT_NEGATIVE</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>reward amount is negative</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C81"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView rightToLeft="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>code</v>
-      </c>
-      <c r="C1" t="str">
-        <v>status</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>enum:ServerErrorType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>int</v>
-      </c>
-      <c r="C2" t="str">
-        <v>int</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>enum:ServerErrorType</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>pk, gen:ServerErrorType, code</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pk, gen:ServerErrorType, code</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>UNKNOWN</v>
-      </c>
-      <c r="B5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>BAD_REQUEST</v>
-      </c>
-      <c r="B6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BAD_REQUEST</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>UNAUTHORIZED</v>
-      </c>
-      <c r="B7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>UNAUTHORIZED</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>401</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>FORBIDDEN</v>
-      </c>
-      <c r="B8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FORBIDDEN</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>403</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>NOT_FOUND</v>
-      </c>
-      <c r="B9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NOT_FOUND</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>INTERNAL</v>
-      </c>
-      <c r="B10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>INTERNAL</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>100</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>SERVICE_UNAVAILABLE</v>
-      </c>
-      <c r="B11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SERVICE_UNAVAILABLE</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>101</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>503</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
-  </ignoredErrors>
 </worksheet>
 </file>